--- a/results_it/early_March_corr_ranking.xlsx
+++ b/results_it/early_March_corr_ranking.xlsx
@@ -453,742 +453,742 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_61-90days_avg</t>
+          <t>total_precip_mm_61-90days_avg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.383099730548957</v>
+        <v>0.4338551580811591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03665026755092596</v>
+        <v>0.01475010408987096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_90days_sum</t>
+          <t>mean_humidity_pct_61-90days_avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.352192742323334</v>
+        <v>0.4209278023101973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0562958750953661</v>
+        <v>0.01837066446089814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_90days_sum</t>
+          <t>mean_vapor_pressure_hPa_90days_sum</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3508766895421147</v>
+        <v>0.4208259844374455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05728716108648971</v>
+        <v>0.01840186334694481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3408357357535253</v>
+        <v>0.3835096981690896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06530899238318083</v>
+        <v>0.03319309973909806</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mean_temp_C_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_30days_sum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.332348807459014</v>
+        <v>0.3673003746886456</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07274954008643965</v>
+        <v>0.04208544946764774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
+          <t>total_precip_mm_90days_sum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.329873649939938</v>
+        <v>0.3656136896312502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0750385028357812</v>
+        <v>0.04311100041541929</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mean_temp_C_31-60days_avg</t>
+          <t>mean_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3242131495743609</v>
+        <v>0.3630079690679385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08048186355440597</v>
+        <v>0.04473456442147901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>max_temp_C_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_60days_sum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3140706404591905</v>
+        <v>0.3606916309852664</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09098710547540703</v>
+        <v>0.0462184821037063</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>max_temp_C_31-60days_avg</t>
+          <t>mean_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2976532631169808</v>
+        <v>0.3605117884183418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1101567073238239</v>
+        <v>0.04633531683027971</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
+          <t>max_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2966847618804376</v>
+        <v>0.3436187873236976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1113750239102583</v>
+        <v>0.05840362777256784</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>max_temp_C_15-30days_avg</t>
+          <t>max_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2944586743751558</v>
+        <v>0.3346075777861129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1142133675570739</v>
+        <v>0.06578315953714033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>max_temp_C_30days_sum</t>
+          <t>max_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2846414049085247</v>
+        <v>0.3346075777861127</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1273754375131447</v>
+        <v>0.06578315953714033</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_61-90days_avg</t>
+          <t>mean_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.283848593682456</v>
+        <v>0.3303214100447212</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1284850516580095</v>
+        <v>0.06953929736753257</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_30days_sum</t>
+          <t>mean_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2809432725416958</v>
+        <v>0.3303214100447212</v>
       </c>
       <c r="C15" t="n">
-        <v>0.13261203179836</v>
+        <v>0.06953929736753257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mean_temp_C_15-30days_avg</t>
+          <t>min_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2639794094522881</v>
+        <v>0.3288685950356967</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1586622214694236</v>
+        <v>0.07084960388262278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mean_temp_C_30days_sum</t>
+          <t>mean_humidity_pct_90days_sum</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2619762596592299</v>
+        <v>0.3288466950039563</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1619640072875461</v>
+        <v>0.07086950133937428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_90days_sum</t>
+          <t>mean_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2606853640016888</v>
+        <v>0.3266287943651756</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164117586756279</v>
+        <v>0.0729071639520488</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>max_temp_C_90days_sum</t>
+          <t>mean_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2548302624662916</v>
+        <v>0.3234865520198797</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1741416429869533</v>
+        <v>0.07587141932342345</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>min_temp_C_15-30days_avg</t>
+          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2458080577331274</v>
+        <v>0.3184077993395195</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1904212721988362</v>
+        <v>0.0808583217805338</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_60days_sum</t>
+          <t>max_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2446868576862803</v>
+        <v>0.3115684261184638</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1925159100322318</v>
+        <v>0.08796760468380148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mean_temp_C_90days_sum</t>
+          <t>max_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2396883970393211</v>
+        <v>0.3076812663196074</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2020487063804075</v>
+        <v>0.09221550729968873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_31-60days_avg</t>
+          <t>min_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2317104723100673</v>
+        <v>0.303917878898473</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2179285650213008</v>
+        <v>0.09647507720367504</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>min_temp_C_60days_sum</t>
+          <t>min_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2294862408625789</v>
+        <v>0.2956033576093728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2225028774913305</v>
+        <v>0.1064124445001821</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>total_precip_mm_15-30days_avg</t>
+          <t>max_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.2207245473013536</v>
+        <v>0.2833861809264904</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2411516472995959</v>
+        <v>0.1223819621558613</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_15-30days_avg</t>
+          <t>max_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2164784734178229</v>
+        <v>0.2797756868209565</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2505527169941896</v>
+        <v>0.1274244281433153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_8-14days_avg</t>
+          <t>total_precip_mm_15-30days_avg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.204704899899747</v>
+        <v>0.2688989820130912</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2778708053879914</v>
+        <v>0.1435389304981605</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
+          <t>mean_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2033663235054815</v>
+        <v>0.2687960303624088</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2810934623501901</v>
+        <v>0.1436982115261473</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_15-30days_avg</t>
+          <t>min_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.201718989066078</v>
+        <v>0.2675355256166632</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2850922419150531</v>
+        <v>0.1456588123881376</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
+          <t>min_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1988027755289349</v>
+        <v>0.2675355256166632</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2922598374918961</v>
+        <v>0.1456588123881376</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>min_temp_C_31-60days_avg</t>
+          <t>sunshine_duration_h_61-90days_avg</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1977366706980688</v>
+        <v>-0.2588824218676825</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2949084565111337</v>
+        <v>0.1596439028874852</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_30days_sum</t>
+          <t>mean_vapor_pressure_hPa_7days_sum</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1887576676689686</v>
+        <v>0.2531714957015965</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3178165796740438</v>
+        <v>0.1693853490674259</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>max_temp_C_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1806972216643268</v>
+        <v>0.2531714957015965</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3392935524306582</v>
+        <v>0.1693853490674259</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>max_temp_C_14days_sum</t>
+          <t>mean_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1795031554352123</v>
+        <v>0.252152133458475</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3425482168257254</v>
+        <v>0.1711675779257545</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>min_temp_C_30days_sum</t>
+          <t>min_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1780577036113335</v>
+        <v>0.2504889494728969</v>
       </c>
       <c r="C35" t="n">
-        <v>0.346513227659217</v>
+        <v>0.1741039278043218</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mean_temp_C_8-14days_avg</t>
+          <t>sunshine_duration_h_90days_sum</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1704326381761875</v>
+        <v>-0.2353643961852646</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3678833790840743</v>
+        <v>0.2024519308042621</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_31-60days_avg</t>
+          <t>mean_vapor_pressure_hPa_14days_sum</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1597382072845418</v>
+        <v>0.2274826231637975</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3991282968026493</v>
+        <v>0.2184220937310807</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mean_temp_C_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1535986675816308</v>
+        <v>0.2219583872806863</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4177262433513346</v>
+        <v>0.2301133086636362</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>total_precip_mm_61-90days_avg</t>
+          <t>max_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1494937259068204</v>
+        <v>0.2134737412982694</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4304252597485985</v>
+        <v>0.2488774914697078</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_60days_sum</t>
+          <t>total_precip_mm_30days_sum</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1472094894733791</v>
+        <v>0.2112381259045857</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4375824069324288</v>
+        <v>0.2539855449417723</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_1-7days_avg</t>
+          <t>sunshine_duration_h_15-30days_avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1383726089672843</v>
+        <v>-0.2042288644248982</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4658714553339682</v>
+        <v>0.2704460755303488</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_7days_sum</t>
+          <t>total_precip_mm_60days_sum</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1383726089672843</v>
+        <v>0.2033776455677036</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4658714553339682</v>
+        <v>0.2724911632914223</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_14days_sum</t>
+          <t>mean_humidity_pct_60days_sum</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.133795622143814</v>
+        <v>0.1922768889157848</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4808918639972368</v>
+        <v>0.3000771058018761</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_60days_sum</t>
+          <t>mean_humidity_pct_15-30days_avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1324508417931065</v>
+        <v>0.1852863185145616</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4853519346483494</v>
+        <v>0.3183221454163807</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_90days_sum</t>
+          <t>min_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1307235334655908</v>
+        <v>0.1847431675697265</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4911115898208739</v>
+        <v>0.3197679471345301</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_30days_sum</t>
+          <t>mean_humidity_pct_31-60days_avg</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.1289115779155498</v>
+        <v>0.1740991233684263</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4971905759714894</v>
+        <v>0.3489185499036696</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_15-30days_avg</t>
+          <t>min_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1217563558009384</v>
+        <v>0.1623871174179229</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5215607287127891</v>
+        <v>0.3827763300452617</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_8-14days_avg</t>
+          <t>mean_humidity_pct_30days_sum</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.120035482050038</v>
+        <v>0.155628482764561</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5275072498125831</v>
+        <v>0.4031516395196149</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>total_precip_mm_30days_sum</t>
+          <t>max_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.1197547321894215</v>
+        <v>0.1545197402760435</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5284804786522377</v>
+        <v>0.4065518879264229</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_61-90days_avg</t>
+          <t>mean_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1186706832848659</v>
+        <v>0.1384001771790331</v>
       </c>
       <c r="C50" t="n">
-        <v>0.532246463117277</v>
+        <v>0.4577858785529701</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_14days_sum</t>
+          <t>sunshine_duration_h_60days_sum</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1165761155692511</v>
+        <v>-0.1314126041262567</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5395591736037972</v>
+        <v>0.481014405472767</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>max_temp_C_7days_sum</t>
+          <t>max_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.11522001399957</v>
+        <v>0.1307045543431584</v>
       </c>
       <c r="C52" t="n">
-        <v>0.544318912750012</v>
+        <v>0.4834015576736737</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>max_temp_C_1-7days_avg</t>
+          <t>sunshine_duration_h_31-60days_avg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.11522001399957</v>
+        <v>-0.1294716045860416</v>
       </c>
       <c r="C53" t="n">
-        <v>0.544318912750012</v>
+        <v>0.4875728738325298</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>min_temp_C_90days_sum</t>
+          <t>total_precip_mm_1-7days_avg</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1121084941653846</v>
+        <v>0.1183285212777334</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5553139008204292</v>
+        <v>0.5260907042393065</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_31-60days_avg</t>
+          <t>total_precip_mm_7days_sum</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1101999499876151</v>
+        <v>0.1183285212777334</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5621083316878145</v>
+        <v>0.5260907042393065</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_30days_sum</t>
+          <t>mean_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.09839952177547234</v>
+        <v>-0.1164079606380125</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6049372400162077</v>
+        <v>0.5328748787413592</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_31-60days_avg</t>
+          <t>sunshine_duration_h_1-7days_avg</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.09789045707582594</v>
+        <v>0.1092319405449905</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6068155551077151</v>
+        <v>0.558588148451367</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>min_temp_C_8-14days_avg</t>
+          <t>sunshine_duration_h_7days_sum</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.08429513582371517</v>
+        <v>0.1092319405449905</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6578563830835966</v>
+        <v>0.5585881484513685</v>
       </c>
     </row>
     <row r="59">
@@ -1198,179 +1198,179 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.07617730116851106</v>
+        <v>0.1088068795544337</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6890877949289058</v>
+        <v>0.5601289504717986</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_1-7days_avg</t>
+          <t>sunshine_duration_h_14days_sum</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.07126319258359433</v>
+        <v>0.1007116536956266</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7082440306990861</v>
+        <v>0.5898389429050658</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_7days_sum</t>
+          <t>mean_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.07126319258359429</v>
+        <v>0.09957821758238351</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7082440306990861</v>
+        <v>0.5940529551040106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>total_precip_mm_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.06979239266837345</v>
+        <v>0.09353318970142287</v>
       </c>
       <c r="C62" t="n">
-        <v>0.714012247590141</v>
+        <v>0.6167444689919146</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mean_temp_C_1-7days_avg</t>
+          <t>mean_humidity_pct_14days_sum</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.06921937934181974</v>
+        <v>0.08968876724380283</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7162637135091275</v>
+        <v>0.6313597834721267</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mean_temp_C_7days_sum</t>
+          <t>total_precip_mm_8-14days_avg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0692193793418197</v>
+        <v>-0.08470210996948035</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7162637135091275</v>
+        <v>0.6505221313671886</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>max_temp_C_61-90days_avg</t>
+          <t>mean_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.06609786558896208</v>
+        <v>-0.08449211624160857</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7285692129064478</v>
+        <v>0.6513340115371402</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_1-7days_avg</t>
+          <t>mean_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.05768491858833753</v>
+        <v>-0.08399113863973291</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7620574247889533</v>
+        <v>0.653272477843336</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_7days_sum</t>
+          <t>total_precip_mm_31-60days_avg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.05768491858833751</v>
+        <v>0.08347645894179641</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7620574247889533</v>
+        <v>0.6552662735636406</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_14days_sum</t>
+          <t>mean_humidity_pct_1-7days_avg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.05716551712425293</v>
+        <v>0.08231870464290632</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7641395007031142</v>
+        <v>0.6597597476748105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_8-14days_avg</t>
+          <t>mean_humidity_pct_7days_sum</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.05353259223830565</v>
+        <v>0.08231870464290618</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7787468117380066</v>
+        <v>0.6597597476748115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_60days_sum</t>
+          <t>mean_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.05346233274837477</v>
+        <v>-0.07845483580485915</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7790300590882647</v>
+        <v>0.6748397854084067</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_90days_sum</t>
+          <t>sunshine_duration_h_30days_sum</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.04316335528512175</v>
+        <v>-0.07812850248906039</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8208319244947394</v>
+        <v>0.6761191933730224</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>min_temp_C_14days_sum</t>
+          <t>mean_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.04066084489409046</v>
+        <v>-0.07555016426409471</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8310669520036071</v>
+        <v>0.6862586276300974</v>
       </c>
     </row>
     <row r="73">
@@ -1380,153 +1380,153 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.02850515295749063</v>
+        <v>-0.06528396947213481</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8811393046243037</v>
+        <v>0.7271485070761178</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>min_temp_C_7days_sum</t>
+          <t>mean_humidity_pct_8-14days_avg</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.02763315557447031</v>
+        <v>0.0616653775335959</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8847509668537157</v>
+        <v>0.7417453816684678</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>min_temp_C_1-7days_avg</t>
+          <t>mean_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.02763315557447027</v>
+        <v>-0.05842325820328197</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8847509668537157</v>
+        <v>0.7548989653242305</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>total_precip_mm_90days_sum</t>
+          <t>mean_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.02716051719834272</v>
+        <v>-0.05842325820328194</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8867095042784382</v>
+        <v>0.7548989653242305</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_8-14days_avg</t>
+          <t>max_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02690944196063795</v>
+        <v>0.05769203281492336</v>
       </c>
       <c r="C77" t="n">
-        <v>0.887750186500182</v>
+        <v>0.7578750908850967</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_14days_sum</t>
+          <t>mean_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02521766202580133</v>
+        <v>-0.0493113245745917</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8947671343913213</v>
+        <v>0.7922180917833237</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>total_precip_mm_31-60days_avg</t>
+          <t>max_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.02422570669191778</v>
+        <v>-0.04317950832318157</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8988850966579246</v>
+        <v>0.81759363687096</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>total_precip_mm_7days_sum</t>
+          <t>max_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02140393954143758</v>
+        <v>-0.04317950832318153</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9106129960866487</v>
+        <v>0.81759363687096</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>total_precip_mm_1-7days_avg</t>
+          <t>max_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02140393954143758</v>
+        <v>0.04219216030710771</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9106129960866487</v>
+        <v>0.8216973134770972</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_61-90days_avg</t>
+          <t>max_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01677562043412853</v>
+        <v>-0.04064713772383434</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9298881451603598</v>
+        <v>0.8281280766004575</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
+          <t>max_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01621998352738692</v>
+        <v>0.02989025018831457</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9322049867204538</v>
+        <v>0.8731817586409284</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_7days_sum</t>
+          <t>max_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01621998352738685</v>
+        <v>-0.02774023062067435</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9322049867204538</v>
+        <v>0.8822383740502558</v>
       </c>
     </row>
     <row r="85">
@@ -1536,88 +1536,88 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01036141867148999</v>
+        <v>0.0276479728196629</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9566629364360181</v>
+        <v>0.8826273301315503</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_30days_sum</t>
+          <t>sunshine_duration_h_8-14days_avg</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.009003679564746181</v>
+        <v>0.02577953955167404</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9623374469030535</v>
+        <v>0.890510235994194</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>total_precip_mm_8-14days_avg</t>
+          <t>max_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.00889097362035134</v>
+        <v>-0.01958405747868461</v>
       </c>
       <c r="C87" t="n">
-        <v>0.962808572927129</v>
+        <v>0.9167183277469234</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_14days_sum</t>
+          <t>mean_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.007997438590536331</v>
+        <v>-0.01862685131752108</v>
       </c>
       <c r="C88" t="n">
-        <v>0.966544091422359</v>
+        <v>0.9207758456097468</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_7days_sum</t>
+          <t>min_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.003916706109997586</v>
+        <v>-0.01726747385526035</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9836116818302654</v>
+        <v>0.9265414691259153</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_1-7days_avg</t>
+          <t>max_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.003916706109997574</v>
+        <v>0.01586874439689327</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9836116818302654</v>
+        <v>0.932477812783983</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>mean_temp_C_61-90days_avg</t>
+          <t>max_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.002213424059077155</v>
+        <v>0.01320111163474832</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9907381514069715</v>
+        <v>0.9438091117815897</v>
       </c>
     </row>
   </sheetData>
